--- a/biology/Zoologie/Heliocopris/Heliocopris.xlsx
+++ b/biology/Zoologie/Heliocopris/Heliocopris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliocopris est un genre de scarabées bousiers de la sous-famille des Scarabaeinae que l'on trouve en Afrique et en Extrême-Orient méridional, jusqu'aux limites du Pakistan et du sud-ouest de l'Afghanistan.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve dans ce genre de grands scarabées mesurant jusqu'à 7 centimètres de longueur, comme Heliocopris dominus qui vit dans la péninsule indochinoise. Bien que ses pontes ne comportent que quatre œufs, ils sont considérés comme les plus gros œufs des scarabées[1]. Les espèces sont de couleur noire ou noirâtre avec souvent une corne sur le pronotum qui est fort saillante chez le mâle, servant à rouler les matières fécales et à combattre les mâles rivaux. Les antennes sont lamelliformes et les élytres sont très chitineux et robustes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve dans ce genre de grands scarabées mesurant jusqu'à 7 centimètres de longueur, comme Heliocopris dominus qui vit dans la péninsule indochinoise. Bien que ses pontes ne comportent que quatre œufs, ils sont considérés comme les plus gros œufs des scarabées. Les espèces sont de couleur noire ou noirâtre avec souvent une corne sur le pronotum qui est fort saillante chez le mâle, servant à rouler les matières fécales et à combattre les mâles rivaux. Les antennes sont lamelliformes et les élytres sont très chitineux et robustes.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Heliocopris alatus (Felsche, 1910)
